--- a/ЗАВОДЫ/МИРАТОРГ/2025/10,25/20,10,25 Мираторг КИ Ташкент/Бланк заказа Моспродторг (ДОЗАКАЗ на 27,10,25).xlsx
+++ b/ЗАВОДЫ/МИРАТОРГ/2025/10,25/20,10,25 Мираторг КИ Ташкент/Бланк заказа Моспродторг (ДОЗАКАЗ на 27,10,25).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\МИРАТОРГ\2025\10,25\20,10,25 Мираторг КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\МИРАТОРГ\2025\10,25\20,10,25 Мираторг КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324F8CBC-F148-4B40-93BA-0147B2378B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E85676-BF10-45D9-8903-8BE16392D7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,16 +22,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$Q$35</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -653,10 +647,10 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,7 +741,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Лист1"/>
@@ -1352,7 +1346,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1473,11 +1467,11 @@
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="6">
         <f t="shared" ref="Q2:Q34" si="1">P2*G2</f>
-        <v>22.56</v>
+        <v>19.739999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
@@ -1583,11 +1577,11 @@
       </c>
       <c r="O4" s="17"/>
       <c r="P4" s="6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="6">
         <f t="shared" si="1"/>
-        <v>19.739999999999998</v>
+        <v>36.659999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
@@ -1636,11 +1630,11 @@
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.739999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" thickBot="1">
@@ -1804,11 +1798,11 @@
         <v>310</v>
       </c>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>20.000000000000004</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1">
@@ -1971,11 +1965,11 @@
         <v>321.70999999999998</v>
       </c>
       <c r="P11" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>38.25</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1">
@@ -2136,11 +2130,11 @@
       </c>
       <c r="O14" s="17"/>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
@@ -2245,11 +2239,11 @@
         <v>270.08</v>
       </c>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1">
@@ -2357,11 +2351,11 @@
         <v>419.22</v>
       </c>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1">
@@ -2468,11 +2462,11 @@
         <v>421.24</v>
       </c>
       <c r="P20" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1">
@@ -2524,11 +2518,11 @@
         <v>277.82</v>
       </c>
       <c r="P21" s="6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1">
@@ -2917,11 +2911,11 @@
       </c>
       <c r="O28" s="17"/>
       <c r="P28" s="6">
-        <v>0</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1">
@@ -3079,11 +3073,11 @@
       </c>
       <c r="O31" s="17"/>
       <c r="P31" s="6">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>97.440000000000012</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" thickBot="1">
@@ -3248,11 +3242,11 @@
     <row r="35" spans="1:17" ht="24" customHeight="1" thickBot="1">
       <c r="P35" s="8">
         <f>SUM(P2:P34)</f>
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="Q35" s="9">
         <f>SUM(Q2:Q34)</f>
-        <v>109.11</v>
+        <v>510.64</v>
       </c>
     </row>
     <row r="37" spans="1:17">
